--- a/dat_accuracy_conexp.xlsx
+++ b/dat_accuracy_conexp.xlsx
@@ -1,29 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbkot\OneDrive - WageningenUR\Msc Biology WUR\Thesis\Final Report\Article New Phytologist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b876cc13d5ca03e6/Documents/Wageningen University/Msc Biology WUR/Thesis/Final Report/Article Scientific Reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="11_4C502CA7832C2394C994AC3899AF2DBC4C4C5B1F" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9F579DA8-97B2-406A-80A9-C89BB0BE563D}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="11_4C502CA7832C2394C994AC3899AF2DBC4C4C5B1F" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6ACB2CCC-D137-48AC-93EC-457173D8DD31}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="1200" windowWidth="16770" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Years" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -2945,11 +2937,11 @@
         <v>103</v>
       </c>
       <c r="D100">
-        <f t="array" ref="D100">SQRT(SUMSQ(D2:D97)/COUNTA(D2:D97))</f>
+        <f>SQRT(SUMSQ(D2:D97)/COUNT(D2:D97))</f>
         <v>0.75020950558103805</v>
       </c>
       <c r="F100">
-        <f t="array" ref="F100">SQRT(SUMSQ(F2:F97)/COUNTA(F2:F97))</f>
+        <f>SQRT(SUMSQ(F2:F97)/COUNT(F2:F97))</f>
         <v>0.78738011680699194</v>
       </c>
     </row>
